--- a/datenRF4/SFU/i = 23,28 - Abtriebswelle 14 - Geber AV Y1/L2_23,28_14_AVY1.xlsx
+++ b/datenRF4/SFU/i = 23,28 - Abtriebswelle 14 - Geber AV Y1/L2_23,28_14_AVY1.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79280b356d20d493/Arbeit/2_Arbeitsergebnisse/2_Strukturierung_Labeling der Daten im Assistenzsystem/Reifegradstufen/Reifegradstufen Synchron ^M Fußgehäuse/i = 23^J28 - Abtriebswelle 14 - Geber AV Y1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{34969927-58EC-47E3-BCDF-BFCCE0FB3FFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9D25016F-BA70-443F-83AE-094001BCBC70}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -402,11 +396,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -587,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -671,15 +665,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -716,7 +708,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -777,7 +777,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -829,7 +829,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1023,42 +1023,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G1:G1048576"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.54296875" customWidth="1"/>
     <col min="6" max="7" width="19" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1"/>
-    <col min="12" max="12" width="63.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="30.81640625" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" customWidth="1"/>
+    <col min="11" max="11" width="24.1796875" customWidth="1"/>
+    <col min="12" max="12" width="63.54296875" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" customWidth="1"/>
+    <col min="15" max="15" width="18.54296875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.54296875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.7265625" customWidth="1"/>
+    <col min="19" max="19" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="21">
       <c r="A1" s="71" t="s">
         <v>104</v>
       </c>
@@ -1086,7 +1086,7 @@
       <c r="S1" s="62"/>
       <c r="T1" s="63"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="1" customFormat="1">
       <c r="A2" s="64" t="s">
         <v>62</v>
       </c>
@@ -1114,7 +1114,7 @@
       <c r="S2" s="6"/>
       <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="11" t="s">
         <v>64</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="43.5">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="T4" s="20"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -1240,7 +1240,7 @@
       <c r="S5" s="22"/>
       <c r="T5" s="24"/>
     </row>
-    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="29">
       <c r="A6" s="42">
         <v>5</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15" thickBot="1">
       <c r="A7" s="44">
         <v>6</v>
       </c>
@@ -1326,24 +1326,26 @@
       <c r="S7" s="22"/>
       <c r="T7" s="24"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15" thickBot="1">
       <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58">
-        <v>1</v>
-      </c>
-      <c r="D8" s="58" t="s">
+      <c r="B8" s="74">
+        <v>3</v>
+      </c>
+      <c r="C8" s="57">
+        <v>1</v>
+      </c>
+      <c r="D8" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G8" s="61">
         <v>23355</v>
       </c>
       <c r="H8" s="21"/>
@@ -1360,7 +1362,7 @@
       <c r="S8" s="22"/>
       <c r="T8" s="24"/>
     </row>
-    <row r="9" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="58">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -1390,7 +1392,7 @@
       <c r="S9" s="22"/>
       <c r="T9" s="24"/>
     </row>
-    <row r="10" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="58">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -1420,7 +1422,7 @@
       <c r="S10" s="22"/>
       <c r="T10" s="24"/>
     </row>
-    <row r="11" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="58.5" thickBot="1">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -1450,7 +1452,7 @@
       <c r="S11" s="22"/>
       <c r="T11" s="24"/>
     </row>
-    <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="43.5">
       <c r="A12" s="42">
         <v>1</v>
       </c>
@@ -1502,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="48">
         <v>5</v>
       </c>
@@ -1536,7 +1538,7 @@
       <c r="S13" s="22"/>
       <c r="T13" s="24"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="15" thickBot="1">
       <c r="A14" s="44">
         <v>6</v>
       </c>
@@ -1570,11 +1572,13 @@
       <c r="S14" s="22"/>
       <c r="T14" s="24"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="48">
         <v>1</v>
       </c>
-      <c r="B15" s="49"/>
+      <c r="B15" s="76">
+        <v>3</v>
+      </c>
       <c r="C15" s="25">
         <v>1</v>
       </c>
@@ -1587,7 +1591,7 @@
       <c r="F15" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="59">
         <v>23355</v>
       </c>
       <c r="H15" s="21"/>
@@ -1604,11 +1608,13 @@
       <c r="S15" s="22"/>
       <c r="T15" s="24"/>
     </row>
-    <row r="16" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="29.5" thickBot="1">
       <c r="A16" s="44">
         <v>2</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="75">
+        <v>3</v>
+      </c>
       <c r="C16" s="46">
         <v>2</v>
       </c>
@@ -1621,7 +1627,7 @@
       <c r="F16" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16" s="60">
         <v>14111</v>
       </c>
       <c r="H16" s="21"/>
@@ -1638,7 +1644,7 @@
       <c r="S16" s="22"/>
       <c r="T16" s="24"/>
     </row>
-    <row r="17" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="29.5" thickBot="1">
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -1668,7 +1674,7 @@
       <c r="S17" s="22"/>
       <c r="T17" s="24"/>
     </row>
-    <row r="18" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="29">
       <c r="A18" s="42">
         <v>1</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="48">
         <v>5</v>
       </c>
@@ -1754,7 +1760,7 @@
       <c r="S19" s="22"/>
       <c r="T19" s="24"/>
     </row>
-    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="15" thickBot="1">
       <c r="A20" s="44">
         <v>6</v>
       </c>
@@ -1788,11 +1794,13 @@
       <c r="S20" s="22"/>
       <c r="T20" s="24"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="48">
         <v>1</v>
       </c>
-      <c r="B21" s="49"/>
+      <c r="B21" s="76">
+        <v>3</v>
+      </c>
       <c r="C21" s="25">
         <v>1</v>
       </c>
@@ -1805,7 +1813,7 @@
       <c r="F21" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="60">
+      <c r="G21" s="59">
         <v>23355</v>
       </c>
       <c r="H21" s="21"/>
@@ -1822,11 +1830,13 @@
       <c r="S21" s="22"/>
       <c r="T21" s="24"/>
     </row>
-    <row r="22" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="29.5" thickBot="1">
       <c r="A22" s="44">
         <v>2</v>
       </c>
-      <c r="B22" s="45"/>
+      <c r="B22" s="75">
+        <v>3</v>
+      </c>
       <c r="C22" s="46">
         <v>2</v>
       </c>
@@ -1839,7 +1849,7 @@
       <c r="F22" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G22" s="60">
         <v>14111</v>
       </c>
       <c r="H22" s="21"/>
@@ -1856,7 +1866,7 @@
       <c r="S22" s="22"/>
       <c r="T22" s="24"/>
     </row>
-    <row r="23" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="29">
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -1886,7 +1896,7 @@
       <c r="S23" s="22"/>
       <c r="T23" s="24"/>
     </row>
-    <row r="24" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="29">
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -1916,7 +1926,7 @@
       <c r="S24" s="22"/>
       <c r="T24" s="24"/>
     </row>
-    <row r="25" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="29.5" thickBot="1">
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -1946,7 +1956,7 @@
       <c r="S25" s="22"/>
       <c r="T25" s="24"/>
     </row>
-    <row r="26" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="29">
       <c r="A26" s="42">
         <v>1</v>
       </c>
@@ -1998,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" s="48">
         <v>5</v>
       </c>
@@ -2032,7 +2042,7 @@
       <c r="S27" s="22"/>
       <c r="T27" s="24"/>
     </row>
-    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="15" thickBot="1">
       <c r="A28" s="44">
         <v>6</v>
       </c>
@@ -2066,11 +2076,13 @@
       <c r="S28" s="22"/>
       <c r="T28" s="24"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" s="48">
         <v>1</v>
       </c>
-      <c r="B29" s="49"/>
+      <c r="B29" s="76">
+        <v>3</v>
+      </c>
       <c r="C29" s="25">
         <v>1</v>
       </c>
@@ -2083,7 +2095,7 @@
       <c r="F29" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="60">
+      <c r="G29" s="59">
         <v>23355</v>
       </c>
       <c r="H29" s="21"/>
@@ -2100,11 +2112,13 @@
       <c r="S29" s="22"/>
       <c r="T29" s="24"/>
     </row>
-    <row r="30" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="29.5" thickBot="1">
       <c r="A30" s="44">
         <v>2</v>
       </c>
-      <c r="B30" s="45"/>
+      <c r="B30" s="75">
+        <v>3</v>
+      </c>
       <c r="C30" s="46">
         <v>2</v>
       </c>
@@ -2117,7 +2131,7 @@
       <c r="F30" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="61">
+      <c r="G30" s="60">
         <v>14111</v>
       </c>
       <c r="H30" s="21"/>
@@ -2134,7 +2148,7 @@
       <c r="S30" s="22"/>
       <c r="T30" s="24"/>
     </row>
-    <row r="31" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="29">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -2164,7 +2178,7 @@
       <c r="S31" s="22"/>
       <c r="T31" s="24"/>
     </row>
-    <row r="32" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="29">
       <c r="A32" s="21"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -2194,7 +2208,7 @@
       <c r="S32" s="22"/>
       <c r="T32" s="24"/>
     </row>
-    <row r="33" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="29">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -2224,7 +2238,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="24"/>
     </row>
-    <row r="34" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="29">
       <c r="A34" s="21"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -2254,7 +2268,7 @@
       <c r="S34" s="22"/>
       <c r="T34" s="24"/>
     </row>
-    <row r="35" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="43.5">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -2284,7 +2298,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="24"/>
     </row>
-    <row r="36" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="29">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -2314,7 +2328,7 @@
       <c r="S36" s="22"/>
       <c r="T36" s="24"/>
     </row>
-    <row r="37" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="29">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -2344,7 +2358,7 @@
       <c r="S37" s="22"/>
       <c r="T37" s="24"/>
     </row>
-    <row r="38" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="29">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -2374,7 +2388,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="24"/>
     </row>
-    <row r="39" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="29">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -2404,7 +2418,7 @@
       <c r="S39" s="22"/>
       <c r="T39" s="24"/>
     </row>
-    <row r="40" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="29">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -2434,7 +2448,7 @@
       <c r="S40" s="22"/>
       <c r="T40" s="24"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -2464,7 +2478,7 @@
       <c r="S41" s="22"/>
       <c r="T41" s="24"/>
     </row>
-    <row r="42" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="43.5">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -2494,7 +2508,7 @@
       <c r="S42" s="22"/>
       <c r="T42" s="24"/>
     </row>
-    <row r="43" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="29">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -2524,7 +2538,7 @@
       <c r="S43" s="22"/>
       <c r="T43" s="24"/>
     </row>
-    <row r="44" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="29">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -2554,7 +2568,7 @@
       <c r="S44" s="22"/>
       <c r="T44" s="24"/>
     </row>
-    <row r="45" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="29">
       <c r="A45" s="21"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -2584,7 +2598,7 @@
       <c r="S45" s="22"/>
       <c r="T45" s="24"/>
     </row>
-    <row r="46" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="29">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -2614,7 +2628,7 @@
       <c r="S46" s="22"/>
       <c r="T46" s="24"/>
     </row>
-    <row r="47" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="29">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -2644,7 +2658,7 @@
       <c r="S47" s="22"/>
       <c r="T47" s="24"/>
     </row>
-    <row r="48" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="29">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -2674,7 +2688,7 @@
       <c r="S48" s="22"/>
       <c r="T48" s="24"/>
     </row>
-    <row r="49" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="29">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -2704,7 +2718,7 @@
       <c r="S49" s="22"/>
       <c r="T49" s="24"/>
     </row>
-    <row r="50" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="29.5" thickBot="1">
       <c r="A50" s="30"/>
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
@@ -2742,87 +2756,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20">
       <c r="O51" s="37"/>
       <c r="P51" s="37"/>
       <c r="Q51" s="37"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="O52" s="37"/>
       <c r="P52" s="37"/>
       <c r="Q52" s="37"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="O53" s="37"/>
       <c r="P53" s="37"/>
       <c r="Q53" s="37"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20">
       <c r="O54" s="37"/>
       <c r="P54" s="37"/>
       <c r="Q54" s="37"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="O55" s="37"/>
       <c r="P55" s="37"/>
       <c r="Q55" s="37"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="O56" s="37"/>
       <c r="P56" s="37"/>
       <c r="Q56" s="37"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="O57" s="37"/>
       <c r="P57" s="37"/>
       <c r="Q57" s="37"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="O58" s="37"/>
       <c r="P58" s="37"/>
       <c r="Q58" s="37"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="O59" s="37"/>
       <c r="P59" s="37"/>
       <c r="Q59" s="37"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="O60" s="37"/>
       <c r="P60" s="37"/>
       <c r="Q60" s="37"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="O61" s="37"/>
       <c r="P61" s="37"/>
       <c r="Q61" s="37"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="O62" s="37"/>
       <c r="P62" s="37"/>
       <c r="Q62" s="37"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="O63" s="37"/>
       <c r="P63" s="37"/>
       <c r="Q63" s="37"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20">
       <c r="O64" s="37"/>
       <c r="P64" s="37"/>
       <c r="Q64" s="37"/>
     </row>
-    <row r="65" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="15:17">
       <c r="O65" s="37"/>
       <c r="P65" s="37"/>
       <c r="Q65" s="37"/>
     </row>
-    <row r="66" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="15:17">
       <c r="O66" s="37"/>
       <c r="P66" s="37"/>
       <c r="Q66" s="37"/>
     </row>
-    <row r="67" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="15:17">
       <c r="O67" s="39"/>
       <c r="P67" s="39"/>
       <c r="Q67" s="39"/>

--- a/datenRF4/SFU/i = 23,28 - Abtriebswelle 14 - Geber AV Y1/L2_23,28_14_AVY1.xlsx
+++ b/datenRF4/SFU/i = 23,28 - Abtriebswelle 14 - Geber AV Y1/L2_23,28_14_AVY1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liria\Desktop\HiWi\testing\BOM\datenRF4\SFU\i = 23,28 - Abtriebswelle 14 - Geber AV Y1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9A9100-1CF3-4A0E-BAC9-058BD73C00A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup" sheetId="1" r:id="rId1"/>
@@ -396,11 +402,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -672,6 +678,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,18 +723,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1023,82 +1029,79 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29:B30"/>
+      <selection activeCell="B29" sqref="B29:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="28.54296875" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
     <col min="6" max="7" width="19" customWidth="1"/>
-    <col min="9" max="9" width="30.81640625" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" customWidth="1"/>
-    <col min="11" max="11" width="24.1796875" customWidth="1"/>
-    <col min="12" max="12" width="63.54296875" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" customWidth="1"/>
-    <col min="14" max="14" width="19.1796875" customWidth="1"/>
-    <col min="15" max="15" width="18.54296875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.1796875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.54296875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23.7265625" customWidth="1"/>
-    <col min="19" max="19" width="15.26953125" customWidth="1"/>
+    <col min="9" max="9" width="30.77734375" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" customWidth="1"/>
+    <col min="12" max="12" width="63.5546875" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" customWidth="1"/>
+    <col min="14" max="14" width="19.21875" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.21875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.77734375" customWidth="1"/>
+    <col min="19" max="19" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="68" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="62" t="s">
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="63"/>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1">
-      <c r="A2" s="64" t="s">
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="66"/>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="65" t="s">
+      <c r="D2" s="69"/>
+      <c r="E2" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="67"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="40"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
@@ -1114,7 +1117,7 @@
       <c r="S2" s="6"/>
       <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>64</v>
       </c>
@@ -1176,7 +1179,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="43.5">
+    <row r="4" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -1210,7 +1213,7 @@
       </c>
       <c r="T4" s="20"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1">
+    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -1240,7 +1243,7 @@
       <c r="S5" s="22"/>
       <c r="T5" s="24"/>
     </row>
-    <row r="6" spans="1:20" ht="29">
+    <row r="6" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="42">
         <v>5</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1">
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44">
         <v>6</v>
       </c>
@@ -1326,11 +1329,11 @@
       <c r="S7" s="22"/>
       <c r="T7" s="24"/>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1">
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="74">
+      <c r="B8" s="62">
         <v>3</v>
       </c>
       <c r="C8" s="57">
@@ -1362,7 +1365,7 @@
       <c r="S8" s="22"/>
       <c r="T8" s="24"/>
     </row>
-    <row r="9" spans="1:20" ht="58">
+    <row r="9" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -1392,7 +1395,7 @@
       <c r="S9" s="22"/>
       <c r="T9" s="24"/>
     </row>
-    <row r="10" spans="1:20" ht="58">
+    <row r="10" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -1422,7 +1425,7 @@
       <c r="S10" s="22"/>
       <c r="T10" s="24"/>
     </row>
-    <row r="11" spans="1:20" ht="58.5" thickBot="1">
+    <row r="11" spans="1:20" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -1452,7 +1455,7 @@
       <c r="S11" s="22"/>
       <c r="T11" s="24"/>
     </row>
-    <row r="12" spans="1:20" ht="43.5">
+    <row r="12" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="42">
         <v>1</v>
       </c>
@@ -1504,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="48">
         <v>5</v>
       </c>
@@ -1538,7 +1541,7 @@
       <c r="S13" s="22"/>
       <c r="T13" s="24"/>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1">
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44">
         <v>6</v>
       </c>
@@ -1572,11 +1575,11 @@
       <c r="S14" s="22"/>
       <c r="T14" s="24"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="48">
         <v>1</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="64">
         <v>3</v>
       </c>
       <c r="C15" s="25">
@@ -1608,11 +1611,11 @@
       <c r="S15" s="22"/>
       <c r="T15" s="24"/>
     </row>
-    <row r="16" spans="1:20" ht="29.5" thickBot="1">
+    <row r="16" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44">
         <v>2</v>
       </c>
-      <c r="B16" s="75">
+      <c r="B16" s="63">
         <v>3</v>
       </c>
       <c r="C16" s="46">
@@ -1644,7 +1647,7 @@
       <c r="S16" s="22"/>
       <c r="T16" s="24"/>
     </row>
-    <row r="17" spans="1:20" ht="29.5" thickBot="1">
+    <row r="17" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -1674,7 +1677,7 @@
       <c r="S17" s="22"/>
       <c r="T17" s="24"/>
     </row>
-    <row r="18" spans="1:20" ht="29">
+    <row r="18" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="42">
         <v>1</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="48">
         <v>5</v>
       </c>
@@ -1760,7 +1763,7 @@
       <c r="S19" s="22"/>
       <c r="T19" s="24"/>
     </row>
-    <row r="20" spans="1:20" ht="15" thickBot="1">
+    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="44">
         <v>6</v>
       </c>
@@ -1794,11 +1797,11 @@
       <c r="S20" s="22"/>
       <c r="T20" s="24"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="48">
         <v>1</v>
       </c>
-      <c r="B21" s="76">
+      <c r="B21" s="64">
         <v>3</v>
       </c>
       <c r="C21" s="25">
@@ -1830,11 +1833,11 @@
       <c r="S21" s="22"/>
       <c r="T21" s="24"/>
     </row>
-    <row r="22" spans="1:20" ht="29.5" thickBot="1">
+    <row r="22" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44">
         <v>2</v>
       </c>
-      <c r="B22" s="75">
+      <c r="B22" s="63">
         <v>3</v>
       </c>
       <c r="C22" s="46">
@@ -1866,7 +1869,7 @@
       <c r="S22" s="22"/>
       <c r="T22" s="24"/>
     </row>
-    <row r="23" spans="1:20" ht="29">
+    <row r="23" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -1896,7 +1899,7 @@
       <c r="S23" s="22"/>
       <c r="T23" s="24"/>
     </row>
-    <row r="24" spans="1:20" ht="29">
+    <row r="24" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -1926,7 +1929,7 @@
       <c r="S24" s="22"/>
       <c r="T24" s="24"/>
     </row>
-    <row r="25" spans="1:20" ht="29.5" thickBot="1">
+    <row r="25" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -1956,7 +1959,7 @@
       <c r="S25" s="22"/>
       <c r="T25" s="24"/>
     </row>
-    <row r="26" spans="1:20" ht="29">
+    <row r="26" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="42">
         <v>1</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="48">
         <v>5</v>
       </c>
@@ -2042,7 +2045,7 @@
       <c r="S27" s="22"/>
       <c r="T27" s="24"/>
     </row>
-    <row r="28" spans="1:20" ht="15" thickBot="1">
+    <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="44">
         <v>6</v>
       </c>
@@ -2076,11 +2079,11 @@
       <c r="S28" s="22"/>
       <c r="T28" s="24"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="48">
         <v>1</v>
       </c>
-      <c r="B29" s="76">
+      <c r="B29" s="64">
         <v>3</v>
       </c>
       <c r="C29" s="25">
@@ -2112,11 +2115,11 @@
       <c r="S29" s="22"/>
       <c r="T29" s="24"/>
     </row>
-    <row r="30" spans="1:20" ht="29.5" thickBot="1">
+    <row r="30" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="44">
         <v>2</v>
       </c>
-      <c r="B30" s="75">
+      <c r="B30" s="63">
         <v>3</v>
       </c>
       <c r="C30" s="46">
@@ -2148,7 +2151,7 @@
       <c r="S30" s="22"/>
       <c r="T30" s="24"/>
     </row>
-    <row r="31" spans="1:20" ht="29">
+    <row r="31" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -2178,7 +2181,7 @@
       <c r="S31" s="22"/>
       <c r="T31" s="24"/>
     </row>
-    <row r="32" spans="1:20" ht="29">
+    <row r="32" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -2208,7 +2211,7 @@
       <c r="S32" s="22"/>
       <c r="T32" s="24"/>
     </row>
-    <row r="33" spans="1:20" ht="29">
+    <row r="33" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -2238,7 +2241,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="24"/>
     </row>
-    <row r="34" spans="1:20" ht="29">
+    <row r="34" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -2268,7 +2271,7 @@
       <c r="S34" s="22"/>
       <c r="T34" s="24"/>
     </row>
-    <row r="35" spans="1:20" ht="43.5">
+    <row r="35" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -2298,7 +2301,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="24"/>
     </row>
-    <row r="36" spans="1:20" ht="29">
+    <row r="36" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -2328,7 +2331,7 @@
       <c r="S36" s="22"/>
       <c r="T36" s="24"/>
     </row>
-    <row r="37" spans="1:20" ht="29">
+    <row r="37" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -2358,7 +2361,7 @@
       <c r="S37" s="22"/>
       <c r="T37" s="24"/>
     </row>
-    <row r="38" spans="1:20" ht="29">
+    <row r="38" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -2388,7 +2391,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="24"/>
     </row>
-    <row r="39" spans="1:20" ht="29">
+    <row r="39" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -2418,7 +2421,7 @@
       <c r="S39" s="22"/>
       <c r="T39" s="24"/>
     </row>
-    <row r="40" spans="1:20" ht="29">
+    <row r="40" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -2448,7 +2451,7 @@
       <c r="S40" s="22"/>
       <c r="T40" s="24"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -2478,7 +2481,7 @@
       <c r="S41" s="22"/>
       <c r="T41" s="24"/>
     </row>
-    <row r="42" spans="1:20" ht="43.5">
+    <row r="42" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -2508,7 +2511,7 @@
       <c r="S42" s="22"/>
       <c r="T42" s="24"/>
     </row>
-    <row r="43" spans="1:20" ht="29">
+    <row r="43" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -2538,7 +2541,7 @@
       <c r="S43" s="22"/>
       <c r="T43" s="24"/>
     </row>
-    <row r="44" spans="1:20" ht="29">
+    <row r="44" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -2568,7 +2571,7 @@
       <c r="S44" s="22"/>
       <c r="T44" s="24"/>
     </row>
-    <row r="45" spans="1:20" ht="29">
+    <row r="45" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -2598,7 +2601,7 @@
       <c r="S45" s="22"/>
       <c r="T45" s="24"/>
     </row>
-    <row r="46" spans="1:20" ht="29">
+    <row r="46" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -2628,7 +2631,7 @@
       <c r="S46" s="22"/>
       <c r="T46" s="24"/>
     </row>
-    <row r="47" spans="1:20" ht="29">
+    <row r="47" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -2658,7 +2661,7 @@
       <c r="S47" s="22"/>
       <c r="T47" s="24"/>
     </row>
-    <row r="48" spans="1:20" ht="29">
+    <row r="48" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -2688,7 +2691,7 @@
       <c r="S48" s="22"/>
       <c r="T48" s="24"/>
     </row>
-    <row r="49" spans="1:20" ht="29">
+    <row r="49" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -2718,7 +2721,7 @@
       <c r="S49" s="22"/>
       <c r="T49" s="24"/>
     </row>
-    <row r="50" spans="1:20" ht="29.5" thickBot="1">
+    <row r="50" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="30"/>
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
@@ -2756,87 +2759,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="O51" s="37"/>
       <c r="P51" s="37"/>
       <c r="Q51" s="37"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="O52" s="37"/>
       <c r="P52" s="37"/>
       <c r="Q52" s="37"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="O53" s="37"/>
       <c r="P53" s="37"/>
       <c r="Q53" s="37"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="O54" s="37"/>
       <c r="P54" s="37"/>
       <c r="Q54" s="37"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="O55" s="37"/>
       <c r="P55" s="37"/>
       <c r="Q55" s="37"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="O56" s="37"/>
       <c r="P56" s="37"/>
       <c r="Q56" s="37"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="O57" s="37"/>
       <c r="P57" s="37"/>
       <c r="Q57" s="37"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="O58" s="37"/>
       <c r="P58" s="37"/>
       <c r="Q58" s="37"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="O59" s="37"/>
       <c r="P59" s="37"/>
       <c r="Q59" s="37"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="O60" s="37"/>
       <c r="P60" s="37"/>
       <c r="Q60" s="37"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="O61" s="37"/>
       <c r="P61" s="37"/>
       <c r="Q61" s="37"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="O62" s="37"/>
       <c r="P62" s="37"/>
       <c r="Q62" s="37"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="O63" s="37"/>
       <c r="P63" s="37"/>
       <c r="Q63" s="37"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="O64" s="37"/>
       <c r="P64" s="37"/>
       <c r="Q64" s="37"/>
     </row>
-    <row r="65" spans="15:17">
+    <row r="65" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O65" s="37"/>
       <c r="P65" s="37"/>
       <c r="Q65" s="37"/>
     </row>
-    <row r="66" spans="15:17">
+    <row r="66" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O66" s="37"/>
       <c r="P66" s="37"/>
       <c r="Q66" s="37"/>
     </row>
-    <row r="67" spans="15:17">
+    <row r="67" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O67" s="39"/>
       <c r="P67" s="39"/>
       <c r="Q67" s="39"/>
